--- a/excel2mysql/excels/category_config.xlsx
+++ b/excel2mysql/excels/category_config.xlsx
@@ -19,24 +19,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>id</t>
   </si>
   <si>
+    <t>int(11)|PRI|</t>
+  </si>
+  <si>
     <t>标识</t>
   </si>
   <si>
     <t>kind_id</t>
   </si>
   <si>
+    <t>int(11)||</t>
+  </si>
+  <si>
     <t>游戏id</t>
   </si>
   <si>
     <t>kind_name</t>
   </si>
   <si>
-    <t>无注释</t>
+    <t>varchar(255)||</t>
+  </si>
+  <si>
+    <t>无</t>
   </si>
   <si>
     <t>type_id</t>
@@ -70,6 +79,9 @@
   </si>
   <si>
     <t>state</t>
+  </si>
+  <si>
+    <t>int(255)||</t>
   </si>
   <si>
     <t>状态，用于web显示，默认0</t>
@@ -411,7 +423,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -422,28 +434,28 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
@@ -451,68 +463,68 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>391</v>
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
       </c>
       <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
         <v>18</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>41</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
+      <c r="I3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>391</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -521,15 +533,44 @@
         <v>41</v>
       </c>
       <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>41</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
         <v>145</v>
       </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
         <v>0</v>
       </c>
     </row>
